--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E2F04-93ED-41DD-B8D5-DDB355E1E15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3675609-C321-4F22-B3C3-88D2A5FFB56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2872" windowWidth="17280" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DokkaebiSkillData" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>뭉게구름</t>
   </si>
   <si>
-    <t>#근접 광역, 스택 쌓기</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>눈속임</t>
   </si>
   <si>
-    <t>#근접 광역, 스택 의존</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>퍼뜨리기기</t>
   </si>
   <si>
-    <t>#디버프, 화상 뿌리기</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -196,13 +187,22 @@
   </si>
   <si>
     <t>timeline_MiasmaSpread</t>
+  </si>
+  <si>
+    <t>#물리 단일, 밀기</t>
+  </si>
+  <si>
+    <t>#버프, 반격 패시브</t>
+  </si>
+  <si>
+    <t>#마법 광역, 디버프</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,6 +219,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,16 +261,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,50 +497,55 @@
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1"/>
@@ -538,43 +555,43 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="1"/>
@@ -584,43 +601,43 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="1"/>
@@ -630,40 +647,42 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>10111001</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="6">
+        <v>10020001</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6">
+        <v>10030001</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10040001</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>85</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4">
-        <v>10111001</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>85</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -672,40 +691,42 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>10121001</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="6">
+        <v>10020002</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="6">
+        <v>10030002</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10040002</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
+        <v>95</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="M5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4">
-        <v>10121001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5">
-        <v>95</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -714,90 +735,92 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>10131001</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6">
+        <v>10020003</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="6">
+        <v>10030003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10040003</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-1000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>200</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="M6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4">
-        <v>10131001</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-1000</v>
-      </c>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>

--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3675609-C321-4F22-B3C3-88D2A5FFB56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E3DFDD-2DF4-487A-AECF-BBCE99E3280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="5565" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DokkaebiSkillData" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>도깨비 스킬 ID</t>
   </si>
@@ -63,21 +63,18 @@
     <t>스킬 종류</t>
   </si>
   <si>
+    <t>스킬 데미지</t>
+  </si>
+  <si>
     <t>스킬 범위</t>
   </si>
   <si>
-    <t>스킬 데미지</t>
-  </si>
-  <si>
     <t>치명타 배율</t>
   </si>
   <si>
     <t>명중율</t>
   </si>
   <si>
-    <t>스킬 효과</t>
-  </si>
-  <si>
     <t>스킬 아이콘명</t>
   </si>
   <si>
@@ -102,21 +99,18 @@
     <t>skillType</t>
   </si>
   <si>
+    <t>skillDamage</t>
+  </si>
+  <si>
     <t>skillRange</t>
   </si>
   <si>
-    <t>skillDamage</t>
-  </si>
-  <si>
     <t>skillCritical</t>
   </si>
   <si>
     <t>skillAccuracy</t>
   </si>
   <si>
-    <t>executionIndex</t>
-  </si>
-  <si>
     <t>skillIconImage</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
     <t>뭉게구름</t>
   </si>
   <si>
+    <t>#물리 단일, 밀기</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
@@ -162,19 +159,25 @@
     <t>눈속임</t>
   </si>
   <si>
+    <t>#버프, 반격 패시브</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
     <t>Buff</t>
   </si>
   <si>
-    <t>skillicon_PhantomReprisal</t>
-  </si>
-  <si>
-    <t>timeline_PhantomReprisal</t>
-  </si>
-  <si>
-    <t>퍼뜨리기기</t>
+    <t>skillicon_SmokeStep</t>
+  </si>
+  <si>
+    <t>timeline_SmokeStep</t>
+  </si>
+  <si>
+    <t>퍼뜨리기</t>
+  </si>
+  <si>
+    <t>#마법 광역, 디버프</t>
   </si>
   <si>
     <t>Black</t>
@@ -183,26 +186,65 @@
     <t>MagicAttack</t>
   </si>
   <si>
-    <t>skillicon_MiasmaSpread</t>
-  </si>
-  <si>
-    <t>timeline_MiasmaSpread</t>
-  </si>
-  <si>
-    <t>#물리 단일, 밀기</t>
-  </si>
-  <si>
-    <t>#버프, 반격 패시브</t>
-  </si>
-  <si>
-    <t>#마법 광역, 디버프</t>
+    <t>skillicon_SmokeWave</t>
+  </si>
+  <si>
+    <t>timeline_SmokeWave</t>
+  </si>
+  <si>
+    <t>연기사슬</t>
+  </si>
+  <si>
+    <t>#디버프, 피해량 증가</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>skillicon_SmokeBind</t>
+  </si>
+  <si>
+    <t>timeline_SmokeBind</t>
+  </si>
+  <si>
+    <t>회오리</t>
+  </si>
+  <si>
+    <t>#마법 단일, 지속피해</t>
+  </si>
+  <si>
+    <t>skillicon_Twister</t>
+  </si>
+  <si>
+    <t>timeline_Twister</t>
+  </si>
+  <si>
+    <t>환위</t>
+  </si>
+  <si>
+    <t>#기타, 위치 교환</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>skillicon_SmokeLink</t>
+  </si>
+  <si>
+    <t>timeline_SmokeLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,6 +255,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -221,32 +264,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,21 +285,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,336 +512,431 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>10020001</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>10101001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="2">
+        <v>10102001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10103001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="6">
-        <v>10030001</v>
-      </c>
-      <c r="H4" s="6">
-        <v>10040001</v>
-      </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>85</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>10020002</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>10101002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6">
-        <v>10030002</v>
-      </c>
-      <c r="H5" s="6">
-        <v>10040002</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="2">
+        <v>10102002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10103002</v>
+      </c>
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="J5" s="6">
-        <v>95</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>10020003</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>10101003</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10102003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10103003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>10101004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10102004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10103004</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>10101005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="6">
-        <v>10030003</v>
-      </c>
-      <c r="H6" s="6">
-        <v>10040003</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10102005</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10103005</v>
+      </c>
+      <c r="I8" s="2">
         <v>-1000</v>
       </c>
-      <c r="J6" s="6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="J8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>10101006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10102006</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10103006</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E3DFDD-2DF4-487A-AECF-BBCE99E3280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76732A29-D59E-40A1-A5A2-A36A6CD21954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="5565" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="600" windowWidth="17120" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -244,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -262,6 +263,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -515,20 +523,20 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +581,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -618,7 +626,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -663,7 +671,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10101001</v>
       </c>
@@ -708,7 +716,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10101002</v>
       </c>
@@ -734,7 +742,7 @@
         <v>10103002</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>-1000</v>
       </c>
       <c r="J5" s="2">
         <v>1000</v>
@@ -753,7 +761,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10101003</v>
       </c>
@@ -795,7 +803,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10101004</v>
       </c>
@@ -837,7 +845,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10101005</v>
       </c>
@@ -879,7 +887,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10101006</v>
       </c>
@@ -921,7 +929,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>

--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76732A29-D59E-40A1-A5A2-A36A6CD21954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268C117-8012-4401-87ED-743898F07FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="600" windowWidth="17120" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="5265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -523,20 +523,20 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>10101001</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10101002</v>
       </c>
@@ -735,9 +735,7 @@
       <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="2">
-        <v>10102002</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>10103002</v>
       </c>
@@ -761,7 +759,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10101003</v>
       </c>
@@ -803,7 +801,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>10101004</v>
       </c>
@@ -845,7 +843,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>10101005</v>
       </c>
@@ -887,7 +885,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>10101006</v>
       </c>
@@ -906,9 +904,7 @@
       <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="2">
-        <v>10102006</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>10103006</v>
       </c>
@@ -929,7 +925,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>

--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D268C117-8012-4401-87ED-743898F07FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E6B3F2-9BB9-4AF3-A559-0C9DCB7AD359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="5265" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1845" windowWidth="18668" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -169,76 +169,78 @@
     <t>Buff</t>
   </si>
   <si>
+    <t>timeline_SmokeStep</t>
+  </si>
+  <si>
+    <t>퍼뜨리기</t>
+  </si>
+  <si>
+    <t>#마법 광역, 디버프</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+  </si>
+  <si>
+    <t>timeline_SmokeWave</t>
+  </si>
+  <si>
+    <t>연기사슬</t>
+  </si>
+  <si>
+    <t>#디버프, 피해량 증가</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>skillicon_SmokeBind</t>
+  </si>
+  <si>
+    <t>timeline_SmokeBind</t>
+  </si>
+  <si>
+    <t>회오리</t>
+  </si>
+  <si>
+    <t>#마법 단일, 지속피해</t>
+  </si>
+  <si>
+    <t>skillicon_Twister</t>
+  </si>
+  <si>
+    <t>timeline_Twister</t>
+  </si>
+  <si>
+    <t>환위</t>
+  </si>
+  <si>
+    <t>#기타, 위치 교환</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>skillicon_SmokeLink</t>
+  </si>
+  <si>
+    <t>timeline_SmokeLink</t>
+  </si>
+  <si>
     <t>skillicon_SmokeStep</t>
-  </si>
-  <si>
-    <t>timeline_SmokeStep</t>
-  </si>
-  <si>
-    <t>퍼뜨리기</t>
-  </si>
-  <si>
-    <t>#마법 광역, 디버프</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>MagicAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skillicon_SmokeWave</t>
-  </si>
-  <si>
-    <t>timeline_SmokeWave</t>
-  </si>
-  <si>
-    <t>연기사슬</t>
-  </si>
-  <si>
-    <t>#디버프, 피해량 증가</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Debuff</t>
-  </si>
-  <si>
-    <t>skillicon_SmokeBind</t>
-  </si>
-  <si>
-    <t>timeline_SmokeBind</t>
-  </si>
-  <si>
-    <t>회오리</t>
-  </si>
-  <si>
-    <t>#마법 단일, 지속피해</t>
-  </si>
-  <si>
-    <t>skillicon_Twister</t>
-  </si>
-  <si>
-    <t>timeline_Twister</t>
-  </si>
-  <si>
-    <t>환위</t>
-  </si>
-  <si>
-    <t>#기타, 위치 교환</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Etc</t>
-  </si>
-  <si>
-    <t>skillicon_SmokeLink</t>
-  </si>
-  <si>
-    <t>timeline_SmokeLink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,20 +525,20 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.86328125" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +583,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,7 +628,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -671,7 +673,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>10101001</v>
       </c>
@@ -716,7 +718,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>10101002</v>
       </c>
@@ -746,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
@@ -759,24 +761,24 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>10101003</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>10102003</v>
@@ -791,34 +793,34 @@
         <v>1000</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>10101004</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>10102004</v>
@@ -833,34 +835,34 @@
         <v>90</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>10101005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
         <v>10102005</v>
@@ -875,34 +877,34 @@
         <v>1000</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>10101006</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -915,17 +917,17 @@
         <v>1000</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>

--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E6B3F2-9BB9-4AF3-A559-0C9DCB7AD359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD0B77-0121-4090-989E-36C87AEAC005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1845" windowWidth="18668" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -947,6 +947,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
+++ b/DataGenerator/XLSXS/DokkaebiSkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD0B77-0121-4090-989E-36C87AEAC005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B09CA-1ACC-4443-A35C-53B139AC3071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1845" windowWidth="18668" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1590" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>도깨비 스킬 ID</t>
   </si>
@@ -240,6 +240,41 @@
   </si>
   <si>
     <t>skillicon_SmokeWave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillToolTip</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 툴팁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_MungeCloud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_SmokeStep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_SmokeWave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_SmokeBind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Twister</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_SmokeLink</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,6 +309,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,6 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -524,21 +567,22 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.86328125" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +619,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -583,7 +629,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -620,7 +666,9 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -628,7 +676,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -665,7 +713,9 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -673,7 +723,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10101001</v>
       </c>
@@ -710,7 +760,9 @@
       <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="1"/>
@@ -718,7 +770,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10101002</v>
       </c>
@@ -753,7 +805,9 @@
       <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="1"/>
@@ -761,7 +815,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>10101003</v>
       </c>
@@ -798,12 +852,14 @@
       <c r="L6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10101004</v>
       </c>
@@ -840,12 +896,14 @@
       <c r="L7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10101005</v>
       </c>
@@ -882,12 +940,14 @@
       <c r="L8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10101006</v>
       </c>
@@ -922,12 +982,14 @@
       <c r="L9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
